--- a/participants/participant_12/participant_12_task_orders.xlsx
+++ b/participants/participant_12/participant_12_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730386429474" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730415574925" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730415634885" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730416224906" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873041685529" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911495723593" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911521125338" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911521135383" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911521770287" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911522652702" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873038605909.csv</t>
+          <t>go_stims-16502911495168178.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730386249433.csv</t>
+          <t>GNG_stims-1650291149539339.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730386259465.csv</t>
+          <t>go_stims-16502911495413375.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730386409435.csv</t>
+          <t>GNG_stims-16502911495713553.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498730402655225.csv</t>
+          <t>TB-1650291151628288.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730396070437.csv</t>
+          <t>TB-16502911520889387.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730399732425.csv</t>
+          <t>OB-16502911513389907.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498730415455234.csv</t>
+          <t>OB-1650291151594819.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730402405243.csv</t>
+          <t>ZB-match_0-16502911498868396.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-16498730386959424.csv</t>
+          <t>OB-16502911504969265.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1649873039928244.csv</t>
+          <t>ZB-match_1-16502911497485597.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498730388460453.csv</t>
+          <t>TB-16502911516634002.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730387349114.csv</t>
+          <t>ZB-match_3-16502911501704128.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730415894887.csv</t>
+          <t>MM_stims-16502911521282945.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-164987304156549.csv</t>
+          <t>ZM_stims-16502911521155338.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730416055233.csv</t>
+          <t>MM_stims-16502911521611154.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730415904887.csv</t>
+          <t>ZM_stims-16502911521292925.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1649873041621526.csv</t>
+          <t>MM_stims-16502911521760652.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730416064901.csv</t>
+          <t>ZM_stims-1650291152162122.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730416535244.csv</t>
+          <t>SAT_stims-1650291152179026.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730416375244.csv</t>
+          <t>vSAT_stims-16502911522484515.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730416244915.csv</t>
+          <t>vSAT_stims-16502911522165935.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873041669489.csv</t>
+          <t>SAT_stims-1650291152192926.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_12/participant_12_task_orders.xlsx
+++ b/participants/participant_12/participant_12_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911495723593" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911521125338" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911521135383" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911521770287" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911522652702" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778010945537" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778031855903" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778031865525" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778032335904" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778032975893" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911495168178.csv</t>
+          <t>go_stims-16504778010585546.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291149539339.csv</t>
+          <t>GNG_stims-16504778010775535.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911495413375.csv</t>
+          <t>go_stims-16504778010785558.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911495713553.csv</t>
+          <t>GNG_stims-16504778010935874.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1650291151628288.csv</t>
+          <t>TB-1650477803160554.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502911520889387.csv</t>
+          <t>TB-16504778027045796.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911513389907.csv</t>
+          <t>OB-16504778021815524.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650291151594819.csv</t>
+          <t>ZB-match_3-1650477801426588.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502911498868396.csv</t>
+          <t>TB-16504778027315931.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502911504969265.csv</t>
+          <t>ZB-match_6-1650477801603587.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502911497485597.csv</t>
+          <t>OB-16504778018815887.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502911516634002.csv</t>
+          <t>OB-16504778025285552.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_3-16502911501704128.csv</t>
+          <t>ZB-match_9-16504778013665519.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911521282945.csv</t>
+          <t>MM_stims-1650477803201587.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911521155338.csv</t>
+          <t>ZM_stims-1650477803188557.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911521611154.csv</t>
+          <t>MM_stims-16504778032175908.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911521292925.csv</t>
+          <t>ZM_stims-16504778032025545.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911521760652.csv</t>
+          <t>MM_stims-16504778032335904.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291152162122.csv</t>
+          <t>ZM_stims-16504778032175908.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291152179026.csv</t>
+          <t>SAT_stims-16504778032365549.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911522484515.csv</t>
+          <t>vSAT_stims-16504778032815893.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911522165935.csv</t>
+          <t>vSAT_stims-16504778032655928.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291152192926.csv</t>
+          <t>SAT_stims-165047780324959.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_12/participant_12_task_orders.xlsx
+++ b/participants/participant_12/participant_12_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778010945537" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778031855903" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778031865525" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778032335904" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778032975893" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960905965006" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996092133394" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996092133394" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960921813798" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960922454135" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778010585546.csv</t>
+          <t>go_stims-16509960905564651.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778010775535.csv</t>
+          <t>GNG_stims-16509960905725052.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778010785558.csv</t>
+          <t>go_stims-16509960905725052.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778010935874.csv</t>
+          <t>GNG_stims-16509960905965006.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1650477803160554.csv</t>
+          <t>OB-16509960912373827.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504778027045796.csv</t>
+          <t>ZB-match_0-16509960910773842.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778021815524.csv</t>
+          <t>OB-1650996091405415.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650477801426588.csv</t>
+          <t>ZB-match_0-16509960907245052.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778027315931.csv</t>
+          <t>TB-16509960920693789.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-1650477801603587.csv</t>
+          <t>ZB-match_0-16509960908453841.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504778018815887.csv</t>
+          <t>TB-16509960917573824.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778025285552.csv</t>
+          <t>TB-16509960921174114.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778013665519.csv</t>
+          <t>OB-16509960912934108.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477803201587.csv</t>
+          <t>MM_stims-16509960921494126.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477803188557.csv</t>
+          <t>ZM_stims-1650996092133394.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778032175908.csv</t>
+          <t>MM_stims-16509960921654134.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778032025545.csv</t>
+          <t>ZM_stims-16509960921494126.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778032335904.csv</t>
+          <t>MM_stims-16509960921813798.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778032175908.csv</t>
+          <t>ZM_stims-16509960921654134.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778032365549.csv</t>
+          <t>vSAT_stims-1650996092229382.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778032815893.csv</t>
+          <t>SAT_stims-16509960921813798.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778032655928.csv</t>
+          <t>SAT_stims-16509960921974132.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-165047780324959.csv</t>
+          <t>vSAT_stims-1650996092213418.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_12/participant_12_task_orders.xlsx
+++ b/participants/participant_12/participant_12_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960905965006" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996092133394" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996092133394" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960921813798" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960922454135" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686821808066" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686836356843" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168683636682" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168683684683" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686837477736" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509960905564651.csv</t>
+          <t>go_stims-16511686821428072.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960905725052.csv</t>
+          <t>GNG_stims-1651168682163811.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960905725052.csv</t>
+          <t>go_stims-1651168682164806.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960905965006.csv</t>
+          <t>GNG_stims-16511686821798425.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509960912373827.csv</t>
+          <t>OB-16511686824895203.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960910773842.csv</t>
+          <t>TB-16511686836177084.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1650996091405415.csv</t>
+          <t>ZB-match_0-1651168682241844.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960907245052.csv</t>
+          <t>TB-16511686830314932.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509960920693789.csv</t>
+          <t>ZB-match_9-16511686821888373.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960908453841.csv</t>
+          <t>TB-16511686828115177.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509960917573824.csv</t>
+          <t>OB-16511686823378098.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509960921174114.csv</t>
+          <t>OB-16511686825864902.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509960912934108.csv</t>
+          <t>ZB-match_4-16511686822698073.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960921494126.csv</t>
+          <t>MM_stims-16511686836517143.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996092133394.csv</t>
+          <t>ZM_stims-16511686836376834.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960921654134.csv</t>
+          <t>MM_stims-16511686836676784.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960921494126.csv</t>
+          <t>ZM_stims-16511686836517143.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960921813798.csv</t>
+          <t>MM_stims-16511686836837149.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960921654134.csv</t>
+          <t>ZM_stims-16511686836676784.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996092229382.csv</t>
+          <t>vSAT_stims-16511686837317436.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960921813798.csv</t>
+          <t>SAT_stims-1651168683699738.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960921974132.csv</t>
+          <t>SAT_stims-16511686836876774.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996092213418.csv</t>
+          <t>vSAT_stims-16511686837157736.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_12/participant_12_task_orders.xlsx
+++ b/participants/participant_12/participant_12_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686821808066" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686836356843" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168683636682" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168683684683" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686837477736" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555138297467" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555155708125" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555155718138" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555156348152" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555157128134" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686821428072.csv</t>
+          <t>go_stims-16512555137917488.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168682163811.csv</t>
+          <t>GNG_stims-16512555138117464.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168682164806.csv</t>
+          <t>go_stims-1651255513813748.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686821798425.csv</t>
+          <t>GNG_stims-1651255513827749.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511686824895203.csv</t>
+          <t>ZB-match_6-16512555140874515.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511686836177084.csv</t>
+          <t>TB-16512555153964458.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-1651168682241844.csv</t>
+          <t>OB-16512555145544455.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511686830314932.csv</t>
+          <t>TB-16512555150674524.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511686821888373.csv</t>
+          <t>ZB-match_8-16512555138357472.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511686828115177.csv</t>
+          <t>ZB-match_9-16512555141354463.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511686823378098.csv</t>
+          <t>TB-1651255515553813.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511686825864902.csv</t>
+          <t>OB-16512555143534462.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511686822698073.csv</t>
+          <t>OB-1651255514288447.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686836517143.csv</t>
+          <t>MM_stims-16512555156028135.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686836376834.csv</t>
+          <t>ZM_stims-16512555155788143.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686836676784.csv</t>
+          <t>MM_stims-16512555156178145.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686836517143.csv</t>
+          <t>ZM_stims-16512555156038141.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686836837149.csv</t>
+          <t>MM_stims-16512555156338131.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686836676784.csv</t>
+          <t>ZM_stims-16512555156188154.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686837317436.csv</t>
+          <t>vSAT_stims-16512555156808136.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168683699738.csv</t>
+          <t>SAT_stims-1651255515665813.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686836876774.csv</t>
+          <t>SAT_stims-16512555156408129.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686837157736.csv</t>
+          <t>vSAT_stims-16512555156968114.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_12/participant_12_task_orders.xlsx
+++ b/participants/participant_12/participant_12_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555138297467" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555155708125" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555155718138" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555156348152" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555157128134" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-165158894312961" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515889431924946" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-16515889432568698" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515889433005884" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RS_TO-16515889433015823" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555137917488.csv</t>
+          <t>ZB-match_1-1651588940298163.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555138117464.csv</t>
+          <t>ZB-match_9-16515889401308095.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255513813748.csv</t>
+          <t>OB-16515889410189502.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255513827749.csv</t>
+          <t>TB-16515889419243107.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TB-1651588943102839.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OB-16515889403463159.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TB-16515889415524783.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZB-match_7-16515889400746477.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OB-16515889407075605.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555140874515.csv</t>
+          <t>MM_stims-1651588943161521.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555153964458.csv</t>
+          <t>ZM_stims-1651588943137244.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512555145544455.csv</t>
+          <t>MM_stims-16515889431771543.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555150674524.csv</t>
+          <t>ZM_stims-1651588943162495.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_8-16512555138357472.csv</t>
+          <t>MM_stims-16515889431924946.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512555141354463.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TB-1651255515553813.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OB-16512555143534462.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OB-1651255514288447.csv</t>
+          <t>ZM_stims-16515889431781235.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889432259598.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889431971092.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889432090235.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889432407753.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515889432625701.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651588943286016.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-1651588943287041.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889432995763.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +784,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,159 +794,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555156028135.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555155788143.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555156178145.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555156038141.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555156338131.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555156188154.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555156808136.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAT_stims-1651255515665813.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555156408129.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555156968114.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
